--- a/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 млрсч.xlsx
+++ b/заказы/статистика филиалы/2023/10,23/25,10,23 КИ/дв 25,10,23 млрсч.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\25,10,23 филиалы КИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\10,23\25,10,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FA6783-1770-41C5-9EA1-21DDA213A8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89043AC5-7965-4176-BC85-98B9D9B5E479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5664,7 +5664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y15" sqref="Y15"/>
+      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="3" x14ac:dyDescent="0.2"/>
@@ -6030,7 +6030,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" ref="Z7:AA70" si="8">P7*H7</f>
+        <f t="shared" ref="Z7:Z70" si="8">P7*H7</f>
         <v>70</v>
       </c>
       <c r="AA7" s="2">
@@ -10440,7 +10440,7 @@
         <v>акция/вывод</v>
       </c>
       <c r="Z71" s="2">
-        <f t="shared" ref="Z71:AA94" si="14">P71*H71</f>
+        <f t="shared" ref="Z71:Z94" si="14">P71*H71</f>
         <v>600</v>
       </c>
       <c r="AA71" s="2">
